--- a/arknights_pos.xlsx
+++ b/arknights_pos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BBF5D-77C1-4EC8-8DD4-5300683805A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9A8C4-1E99-44F2-9C57-4841B85A2589}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="617" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="617" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_interface" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>干员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
   </si>
   <si>
     <t>招募位3</t>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导航</t>
@@ -718,7 +714,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>1035</v>
@@ -735,7 +731,7 @@
         <v>0.875</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -757,7 +753,7 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -779,7 +775,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -801,7 +797,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -823,12 +819,12 @@
         <v>0.49166666666666664</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1195</v>
@@ -845,7 +841,7 @@
         <v>0.90555555555555556</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -867,12 +863,12 @@
         <v>0.25833333333333336</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1215</v>
@@ -889,7 +885,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +928,7 @@
         <v>0.19722222222222222</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -954,7 +950,7 @@
         <v>0.13055555555555556</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -976,12 +972,12 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>267</v>
@@ -998,12 +994,12 @@
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>1162</v>
@@ -1020,7 +1016,7 @@
         <v>0.3125</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1041,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>267</v>
@@ -1054,20 +1050,20 @@
         <v>77</v>
       </c>
       <c r="D1">
-        <f>B1/1280</f>
+        <f t="shared" ref="D1:D20" si="0">B1/1280</f>
         <v>0.20859374999999999</v>
       </c>
       <c r="E1">
-        <f>(C1-35)/720</f>
+        <f t="shared" ref="E1:E20" si="1">(C1-35)/720</f>
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>273</v>
@@ -1076,20 +1072,20 @@
         <v>657</v>
       </c>
       <c r="D2">
-        <f>B2/1280</f>
+        <f t="shared" si="0"/>
         <v>0.21328125000000001</v>
       </c>
       <c r="E2">
-        <f>(C2-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.86388888888888893</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>129</v>
@@ -1098,15 +1094,15 @@
         <v>402</v>
       </c>
       <c r="D3">
-        <f>B3/1280</f>
+        <f t="shared" si="0"/>
         <v>0.10078125</v>
       </c>
       <c r="E3">
-        <f>(C3-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.50972222222222219</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1120,15 +1116,15 @@
         <v>267</v>
       </c>
       <c r="D4">
-        <f>B4/1280</f>
+        <f t="shared" si="0"/>
         <v>0.30156250000000001</v>
       </c>
       <c r="E4">
-        <f>(C4-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.32222222222222224</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1142,15 +1138,15 @@
         <v>332</v>
       </c>
       <c r="D5">
-        <f>B5/1280</f>
+        <f t="shared" si="0"/>
         <v>0.45859375000000002</v>
       </c>
       <c r="E5">
-        <f>(C5-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.41249999999999998</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1164,15 +1160,15 @@
         <v>234</v>
       </c>
       <c r="D6">
-        <f>B6/1280</f>
+        <f t="shared" si="0"/>
         <v>0.61562499999999998</v>
       </c>
       <c r="E6">
-        <f>(C6-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.27638888888888891</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1186,15 +1182,15 @@
         <v>283</v>
       </c>
       <c r="D7">
-        <f>B7/1280</f>
+        <f t="shared" si="0"/>
         <v>0.78593749999999996</v>
       </c>
       <c r="E7">
-        <f>(C7-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.34444444444444444</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1208,15 +1204,15 @@
         <v>547</v>
       </c>
       <c r="D8">
-        <f>B8/1280</f>
+        <f t="shared" si="0"/>
         <v>0.52031249999999996</v>
       </c>
       <c r="E8">
-        <f>(C8-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.71111111111111114</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1230,15 +1226,15 @@
         <v>493</v>
       </c>
       <c r="D9">
-        <f>B9/1280</f>
+        <f t="shared" si="0"/>
         <v>0.68515625000000002</v>
       </c>
       <c r="E9">
-        <f>(C9-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.63611111111111107</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1252,15 +1248,15 @@
         <v>509</v>
       </c>
       <c r="D10">
-        <f>B10/1280</f>
+        <f t="shared" si="0"/>
         <v>0.34609374999999998</v>
       </c>
       <c r="E10">
-        <f>(C10-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.65833333333333333</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1274,15 +1270,15 @@
         <v>218</v>
       </c>
       <c r="D11">
-        <f>B11/1280</f>
+        <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
       <c r="E11">
-        <f>(C11-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.25416666666666665</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1296,20 +1292,20 @@
         <v>324</v>
       </c>
       <c r="D12">
-        <f>B12/1280</f>
+        <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
       <c r="E12">
-        <f>(C12-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.40138888888888891</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>1200</v>
@@ -1318,20 +1314,20 @@
         <v>422</v>
       </c>
       <c r="D13">
-        <f>B13/1280</f>
+        <f t="shared" si="0"/>
         <v>0.9375</v>
       </c>
       <c r="E13">
-        <f>(C13-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.53749999999999998</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>803</v>
@@ -1340,20 +1336,20 @@
         <v>612</v>
       </c>
       <c r="D14">
-        <f>B14/1280</f>
+        <f t="shared" si="0"/>
         <v>0.62734374999999998</v>
       </c>
       <c r="E14">
-        <f>(C14-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.80138888888888893</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>989</v>
@@ -1362,20 +1358,20 @@
         <v>135</v>
       </c>
       <c r="D15">
-        <f>B15/1280</f>
+        <f t="shared" si="0"/>
         <v>0.77265625000000004</v>
       </c>
       <c r="E15">
-        <f>(C15-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>1071</v>
@@ -1384,20 +1380,20 @@
         <v>722</v>
       </c>
       <c r="D16">
-        <f>B16/1280</f>
+        <f t="shared" si="0"/>
         <v>0.83671874999999996</v>
       </c>
       <c r="E16">
-        <f>(C16-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.95416666666666672</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>776</v>
@@ -1406,20 +1402,20 @@
         <v>409</v>
       </c>
       <c r="D17">
-        <f>B17/1280</f>
+        <f t="shared" si="0"/>
         <v>0.60624999999999996</v>
       </c>
       <c r="E17">
-        <f>(C17-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.51944444444444449</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>215</v>
@@ -1428,20 +1424,20 @@
         <v>219</v>
       </c>
       <c r="D18">
-        <f>B18/1280</f>
+        <f t="shared" si="0"/>
         <v>0.16796875</v>
       </c>
       <c r="E18">
-        <f>(C18-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.25555555555555554</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>1192</v>
@@ -1450,20 +1446,20 @@
         <v>167</v>
       </c>
       <c r="D19">
-        <f>B19/1280</f>
+        <f t="shared" si="0"/>
         <v>0.93125000000000002</v>
       </c>
       <c r="E19">
-        <f>(C19-35)/720</f>
+        <f t="shared" si="1"/>
         <v>0.18333333333333332</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>1246</v>
@@ -1472,15 +1468,15 @@
         <v>72</v>
       </c>
       <c r="D20">
-        <f>B20/1280</f>
+        <f t="shared" si="0"/>
         <v>0.97343749999999996</v>
       </c>
       <c r="E20">
-        <f>(C20-35)/720</f>
+        <f t="shared" si="1"/>
         <v>5.1388888888888887E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1518,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1544,7 +1540,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1566,7 +1562,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1588,7 +1584,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1610,7 +1606,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1632,7 +1628,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1654,7 +1650,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1676,7 +1672,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1698,12 +1694,12 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>650</v>
@@ -1720,12 +1716,12 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>267</v>
@@ -1742,7 +1738,7 @@
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1753,15 +1749,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F8C736-AFF2-4458-861D-B7B8138F0C26}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1783,7 +1780,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1805,7 +1802,7 @@
         <v>0.92361111111111116</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1827,12 +1824,12 @@
         <v>0.82361111111111107</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>1105</v>
@@ -1849,7 +1846,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1857,43 +1854,21 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="C5">
         <v>77</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D6" si="0">B5/1280</f>
-        <v>7.1874999999999994E-2</v>
+        <f t="shared" ref="D5" si="0">B5/1280</f>
+        <v>0.20859374999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E6" si="1">(C5-35)/720</f>
+        <f t="shared" ref="E5" si="1">(C5-35)/720</f>
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>267</v>
-      </c>
-      <c r="C6">
-        <v>77</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.20859374999999999</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>5.8333333333333334E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1905,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4740DB9-075B-477D-BE6A-58312194C7F8}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1932,7 +1907,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1954,7 +1929,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1976,7 +1951,7 @@
         <v>0.21527777777777779</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1984,43 +1959,21 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="C4">
         <v>77</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">B4/1280</f>
-        <v>7.1874999999999994E-2</v>
+        <f t="shared" ref="D4" si="0">B4/1280</f>
+        <v>0.20859374999999999</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E5" si="1">(C4-35)/720</f>
+        <f t="shared" ref="E4" si="1">(C4-35)/720</f>
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>267</v>
-      </c>
-      <c r="C5">
         <v>77</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.20859374999999999</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>5.8333333333333334E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2032,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF7676D-D16D-4961-AB08-ADA4169B366B}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2059,7 +2012,7 @@
         <v>0.41111111111111109</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2081,7 +2034,7 @@
         <v>0.41111111111111109</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2103,7 +2056,7 @@
         <v>0.79305555555555551</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2111,43 +2064,21 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="C4">
         <v>77</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">B4/1280</f>
-        <v>7.1874999999999994E-2</v>
+        <f t="shared" ref="D4" si="0">B4/1280</f>
+        <v>0.20859374999999999</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E5" si="1">(C4-35)/720</f>
+        <f t="shared" ref="E4" si="1">(C4-35)/720</f>
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>267</v>
-      </c>
-      <c r="C5">
-        <v>77</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.20859374999999999</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>5.8333333333333334E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8D0CAB-628E-453D-82D0-D4AF91DFF174}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2168,7 +2099,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>267</v>
@@ -2185,12 +2116,12 @@
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>97</v>
@@ -2207,7 +2138,7 @@
         <v>0.33611111111111114</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2229,7 +2160,7 @@
         <v>0.33611111111111114</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2251,12 +2182,12 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>687</v>
@@ -2273,7 +2204,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2295,7 +2226,7 @@
         <v>0.33611111111111114</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2317,7 +2248,7 @@
         <v>0.33611111111111114</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2339,7 +2270,7 @@
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2352,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C7318F-B915-46FB-8B91-74A93B842418}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2363,7 +2294,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1">
         <v>840</v>
@@ -2380,12 +2311,12 @@
         <v>0.15277777777777779</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>1200</v>
@@ -2402,12 +2333,12 @@
         <v>0.15277777777777779</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>270</v>
@@ -2424,12 +2355,12 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>1020</v>
@@ -2446,12 +2377,12 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -2460,20 +2391,20 @@
         <v>300</v>
       </c>
       <c r="D5">
-        <f>B5/1280</f>
+        <f t="shared" ref="D5:D12" si="6">B5/1280</f>
         <v>0.1171875</v>
       </c>
       <c r="E5">
-        <f>(C5-35)/720</f>
+        <f t="shared" ref="E5:E12" si="7">(C5-35)/720</f>
         <v>0.36805555555555558</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>400</v>
@@ -2482,20 +2413,20 @@
         <v>300</v>
       </c>
       <c r="D6">
-        <f>B6/1280</f>
+        <f t="shared" si="6"/>
         <v>0.3125</v>
       </c>
       <c r="E6">
-        <f>(C6-35)/720</f>
+        <f t="shared" si="7"/>
         <v>0.36805555555555558</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>650</v>
@@ -2504,20 +2435,20 @@
         <v>300</v>
       </c>
       <c r="D7">
-        <f>B7/1280</f>
+        <f t="shared" si="6"/>
         <v>0.5078125</v>
       </c>
       <c r="E7">
-        <f>(C7-35)/720</f>
+        <f t="shared" si="7"/>
         <v>0.36805555555555558</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>900</v>
@@ -2526,20 +2457,20 @@
         <v>300</v>
       </c>
       <c r="D8">
-        <f>B8/1280</f>
+        <f t="shared" si="6"/>
         <v>0.703125</v>
       </c>
       <c r="E8">
-        <f>(C8-35)/720</f>
+        <f t="shared" si="7"/>
         <v>0.36805555555555558</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>1150</v>
@@ -2548,20 +2479,20 @@
         <v>300</v>
       </c>
       <c r="D9">
-        <f>B9/1280</f>
+        <f t="shared" si="6"/>
         <v>0.8984375</v>
       </c>
       <c r="E9">
-        <f>(C9-35)/720</f>
+        <f t="shared" si="7"/>
         <v>0.36805555555555558</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>150</v>
@@ -2570,20 +2501,20 @@
         <v>550</v>
       </c>
       <c r="D10">
-        <f>B10/1280</f>
+        <f t="shared" si="6"/>
         <v>0.1171875</v>
       </c>
       <c r="E10">
-        <f>(C10-35)/720</f>
+        <f t="shared" si="7"/>
         <v>0.71527777777777779</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>933</v>
@@ -2592,20 +2523,20 @@
         <v>617</v>
       </c>
       <c r="D11">
-        <f>B11/1280</f>
+        <f t="shared" si="6"/>
         <v>0.72890624999999998</v>
       </c>
       <c r="E11">
-        <f>(C11-35)/720</f>
+        <f t="shared" si="7"/>
         <v>0.80833333333333335</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>620</v>
@@ -2614,20 +2545,20 @@
         <v>717</v>
       </c>
       <c r="D12">
-        <f>B12/1280</f>
+        <f t="shared" si="6"/>
         <v>0.484375</v>
       </c>
       <c r="E12">
-        <f>(C12-35)/720</f>
+        <f t="shared" si="7"/>
         <v>0.94722222222222219</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>267</v>
@@ -2636,15 +2567,15 @@
         <v>77</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="6">B13/1280</f>
+        <f t="shared" ref="D13" si="8">B13/1280</f>
         <v>0.20859374999999999</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="7">(C13-35)/720</f>
+        <f t="shared" ref="E13" si="9">(C13-35)/720</f>
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
